--- a/Experiment_results/xlsx_format/ex_time.xlsx
+++ b/Experiment_results/xlsx_format/ex_time.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\ДИПЛОМНЫЙ проект\результаты экспериментов\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48A227CE-0C8C-4145-A44B-F061D1A9FF47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{417A71B8-2047-461C-B6D7-0399C8CF8A92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -84,9 +84,6 @@
     <t>model</t>
   </si>
   <si>
-    <t>type forecast</t>
-  </si>
-  <si>
     <t>univariate</t>
   </si>
   <si>
@@ -102,9 +99,6 @@
     <t>PatchTST</t>
   </si>
   <si>
-    <t>type learning</t>
-  </si>
-  <si>
     <t>zero-shot</t>
   </si>
   <si>
@@ -142,6 +136,12 @@
   </si>
   <si>
     <t>sum(minute)</t>
+  </si>
+  <si>
+    <t>learning_type</t>
+  </si>
+  <si>
+    <t>forecast_type</t>
   </si>
 </sst>
 </file>
@@ -464,22 +464,22 @@
   <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11.109375" customWidth="1"/>
     <col min="2" max="2" width="13.88671875" customWidth="1"/>
-    <col min="3" max="3" width="25.44140625" customWidth="1"/>
-    <col min="4" max="4" width="22.21875" customWidth="1"/>
-    <col min="5" max="5" width="21.109375" customWidth="1"/>
-    <col min="6" max="6" width="23.6640625" customWidth="1"/>
-    <col min="7" max="7" width="23.44140625" customWidth="1"/>
-    <col min="8" max="8" width="25" customWidth="1"/>
-    <col min="9" max="9" width="23.44140625" customWidth="1"/>
-    <col min="10" max="10" width="21.5546875" customWidth="1"/>
-    <col min="11" max="11" width="22.33203125" customWidth="1"/>
+    <col min="3" max="3" width="14.21875" customWidth="1"/>
+    <col min="4" max="4" width="6.109375" customWidth="1"/>
+    <col min="5" max="5" width="6.6640625" customWidth="1"/>
+    <col min="6" max="6" width="7" customWidth="1"/>
+    <col min="7" max="7" width="6.88671875" customWidth="1"/>
+    <col min="8" max="8" width="13.77734375" customWidth="1"/>
+    <col min="9" max="9" width="8.44140625" customWidth="1"/>
+    <col min="10" max="10" width="7.33203125" customWidth="1"/>
+    <col min="11" max="11" width="13.109375" customWidth="1"/>
     <col min="12" max="12" width="23.44140625" customWidth="1"/>
     <col min="13" max="13" width="22.88671875" customWidth="1"/>
     <col min="14" max="14" width="21" customWidth="1"/>
@@ -499,10 +499,10 @@
         <v>15</v>
       </c>
       <c r="B1" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="C1" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="D1" t="s">
         <v>0</v>
@@ -526,18 +526,18 @@
         <v>6</v>
       </c>
       <c r="K1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -545,13 +545,13 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -562,13 +562,13 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D4">
         <v>2</v>
@@ -597,13 +597,13 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D5">
         <v>7</v>
@@ -632,13 +632,13 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D6">
         <v>2</v>
@@ -667,13 +667,13 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D7">
         <v>8</v>
@@ -702,13 +702,13 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D8">
         <v>2</v>
@@ -737,13 +737,13 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D9">
         <v>5</v>
@@ -772,13 +772,13 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D10">
         <v>2</v>
@@ -807,13 +807,13 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D11">
         <v>4</v>
@@ -842,13 +842,13 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G12" s="2"/>
       <c r="K12" s="1" t="s">
@@ -857,13 +857,13 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G13" s="2"/>
       <c r="K13" s="1" t="s">
@@ -872,13 +872,13 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K14">
         <v>55</v>
@@ -886,13 +886,13 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K15">
         <v>238</v>
@@ -900,13 +900,13 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B16" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D16">
         <v>7</v>
@@ -932,13 +932,13 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B17" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D17">
         <v>23</v>
@@ -967,13 +967,13 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B18" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C18" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D18">
         <v>29</v>
@@ -1002,13 +1002,13 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D19">
         <v>3</v>
@@ -1037,13 +1037,13 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D20">
         <v>11</v>
@@ -1072,13 +1072,13 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B21" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D21">
         <v>3</v>
@@ -1107,13 +1107,13 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B22" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C22" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D22">
         <v>3</v>

--- a/Experiment_results/xlsx_format/ex_time.xlsx
+++ b/Experiment_results/xlsx_format/ex_time.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\ДИПЛОМНЫЙ проект\результаты экспериментов\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{417A71B8-2047-461C-B6D7-0399C8CF8A92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{889FFC9F-B74C-423E-948D-4071CDFEA196}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="33">
   <si>
     <t>ETTh1</t>
   </si>
@@ -114,16 +114,7 @@
     <t>UniTime</t>
   </si>
   <si>
-    <t xml:space="preserve">UniTime </t>
-  </si>
-  <si>
-    <t>Unitime</t>
-  </si>
-  <si>
     <t>GTT-Tiny</t>
-  </si>
-  <si>
-    <t>GTT- Tiny</t>
   </si>
   <si>
     <t>GTT-Small</t>
@@ -464,7 +455,7 @@
   <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -499,10 +490,10 @@
         <v>15</v>
       </c>
       <c r="B1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D1" t="s">
         <v>0</v>
@@ -526,12 +517,12 @@
         <v>6</v>
       </c>
       <c r="K1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B2" t="s">
         <v>21</v>
@@ -545,7 +536,7 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B3" t="s">
         <v>22</v>
@@ -562,7 +553,7 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B4" t="s">
         <v>21</v>
@@ -597,7 +588,7 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B5" t="s">
         <v>23</v>
@@ -632,7 +623,7 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B6" t="s">
         <v>21</v>
@@ -667,7 +658,7 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B7" t="s">
         <v>23</v>
@@ -702,7 +693,7 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B8" t="s">
         <v>21</v>
@@ -737,7 +728,7 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B9" t="s">
         <v>23</v>
@@ -772,7 +763,7 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B10" t="s">
         <v>21</v>
@@ -807,7 +798,7 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B11" t="s">
         <v>23</v>
@@ -857,7 +848,7 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B13" t="s">
         <v>21</v>
@@ -872,7 +863,7 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B14" t="s">
         <v>23</v>
@@ -935,7 +926,7 @@
         <v>20</v>
       </c>
       <c r="B17" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C17" t="s">
         <v>16</v>
@@ -970,7 +961,7 @@
         <v>20</v>
       </c>
       <c r="B18" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C18" t="s">
         <v>17</v>
@@ -1005,7 +996,7 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C19" t="s">
         <v>16</v>
@@ -1040,7 +1031,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C20" t="s">
         <v>17</v>
@@ -1075,7 +1066,7 @@
         <v>18</v>
       </c>
       <c r="B21" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C21" t="s">
         <v>16</v>
@@ -1110,7 +1101,7 @@
         <v>18</v>
       </c>
       <c r="B22" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C22" t="s">
         <v>17</v>

--- a/Experiment_results/xlsx_format/ex_time.xlsx
+++ b/Experiment_results/xlsx_format/ex_time.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\ДИПЛОМНЫЙ проект\результаты экспериментов\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{889FFC9F-B74C-423E-948D-4071CDFEA196}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F31714B-EF53-4D94-81CD-FB60A1EBAE6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -90,9 +90,6 @@
     <t>multivariate</t>
   </si>
   <si>
-    <t>SparseTFT</t>
-  </si>
-  <si>
     <t>SegRNN</t>
   </si>
   <si>
@@ -133,6 +130,9 @@
   </si>
   <si>
     <t>forecast_type</t>
+  </si>
+  <si>
+    <t>SparseTSF</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
   <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -490,10 +490,10 @@
         <v>15</v>
       </c>
       <c r="B1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" t="s">
         <v>31</v>
-      </c>
-      <c r="C1" t="s">
-        <v>32</v>
       </c>
       <c r="D1" t="s">
         <v>0</v>
@@ -517,15 +517,15 @@
         <v>6</v>
       </c>
       <c r="K1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C2" t="s">
         <v>16</v>
@@ -536,10 +536,10 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C3" t="s">
         <v>16</v>
@@ -553,10 +553,10 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C4" t="s">
         <v>16</v>
@@ -588,10 +588,10 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C5" t="s">
         <v>16</v>
@@ -623,10 +623,10 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C6" t="s">
         <v>17</v>
@@ -658,10 +658,10 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C7" t="s">
         <v>17</v>
@@ -693,10 +693,10 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C8" t="s">
         <v>16</v>
@@ -728,10 +728,10 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C9" t="s">
         <v>16</v>
@@ -763,10 +763,10 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C10" t="s">
         <v>17</v>
@@ -798,10 +798,10 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C11" t="s">
         <v>17</v>
@@ -833,10 +833,10 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C12" t="s">
         <v>16</v>
@@ -848,10 +848,10 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C13" t="s">
         <v>17</v>
@@ -863,10 +863,10 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C14" t="s">
         <v>16</v>
@@ -877,10 +877,10 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C15" t="s">
         <v>17</v>
@@ -891,10 +891,10 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C16" t="s">
         <v>16</v>
@@ -923,10 +923,10 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B17" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C17" t="s">
         <v>16</v>
@@ -958,10 +958,10 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C18" t="s">
         <v>17</v>
@@ -993,10 +993,10 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C19" t="s">
         <v>16</v>
@@ -1028,10 +1028,10 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C20" t="s">
         <v>17</v>
@@ -1063,10 +1063,10 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="B21" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C21" t="s">
         <v>16</v>
@@ -1098,10 +1098,10 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="B22" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C22" t="s">
         <v>17</v>

--- a/Experiment_results/xlsx_format/ex_time.xlsx
+++ b/Experiment_results/xlsx_format/ex_time.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\ДИПЛОМНЫЙ проект\результаты экспериментов\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EED9339D-228C-412A-82C0-E02C246BFABA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{593244F0-3DD9-4B65-9B8B-A3762C71C754}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -111,9 +111,6 @@
     <t>ModernTCN</t>
   </si>
   <si>
-    <t>sum_second</t>
-  </si>
-  <si>
     <t>native</t>
   </si>
   <si>
@@ -124,6 +121,9 @@
   </si>
   <si>
     <t>Repeat_Closest</t>
+  </si>
+  <si>
+    <t>sum_seconds</t>
   </si>
 </sst>
 </file>
@@ -451,7 +451,7 @@
   <dimension ref="A1:M26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N35" sqref="N35"/>
+      <selection activeCell="O13" sqref="O13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -515,13 +515,13 @@
         <v>6</v>
       </c>
       <c r="K1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L1" t="s">
         <v>27</v>
       </c>
-      <c r="L1" t="s">
-        <v>28</v>
-      </c>
       <c r="M1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
@@ -1351,10 +1351,10 @@
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C25" t="s">
         <v>8</v>
@@ -1365,10 +1365,10 @@
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C26" t="s">
         <v>9</v>

--- a/Experiment_results/xlsx_format/ex_time.xlsx
+++ b/Experiment_results/xlsx_format/ex_time.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\ДИПЛОМНЫЙ проект\результаты экспериментов\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{593244F0-3DD9-4B65-9B8B-A3762C71C754}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB5563AC-675D-49B8-976F-06D8CDCDE64F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="32">
   <si>
     <t>ETTh1</t>
   </si>
@@ -124,6 +124,12 @@
   </si>
   <si>
     <t>sum_seconds</t>
+  </si>
+  <si>
+    <t>UniTime_8</t>
+  </si>
+  <si>
+    <t>Unitime_8</t>
   </si>
 </sst>
 </file>
@@ -448,10 +454,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M26"/>
+  <dimension ref="A1:M30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O13" sqref="O13"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="O18" sqref="O18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -985,7 +991,7 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="B16" t="s">
         <v>12</v>
@@ -993,387 +999,499 @@
       <c r="C16" t="s">
         <v>8</v>
       </c>
-      <c r="D16">
-        <v>424</v>
-      </c>
-      <c r="E16">
-        <v>422</v>
-      </c>
-      <c r="F16">
-        <v>424</v>
-      </c>
-      <c r="G16">
-        <v>427</v>
-      </c>
-      <c r="H16">
-        <v>426</v>
-      </c>
-      <c r="J16">
-        <v>31</v>
-      </c>
       <c r="M16">
-        <f>SUM(D16:J16)+480</f>
-        <v>2634</v>
+        <v>2254</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="B17" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C17" t="s">
         <v>8</v>
       </c>
       <c r="D17">
-        <v>1369</v>
+        <v>374</v>
       </c>
       <c r="E17">
-        <v>1466</v>
+        <v>368</v>
       </c>
       <c r="F17">
-        <v>1246</v>
+        <v>1325</v>
       </c>
       <c r="G17">
-        <v>1364</v>
+        <v>1320</v>
       </c>
       <c r="H17">
-        <v>554</v>
+        <v>211</v>
       </c>
       <c r="I17">
-        <v>1642</v>
+        <v>1282</v>
       </c>
       <c r="J17">
-        <v>617</v>
+        <v>57</v>
       </c>
       <c r="K17">
-        <v>347</v>
+        <v>67</v>
       </c>
       <c r="L17">
-        <v>1231</v>
+        <v>473</v>
       </c>
       <c r="M17">
-        <f t="shared" ref="M17:M24" si="0">SUM(D17:L17)</f>
-        <v>9836</v>
+        <f>SUM(D17:L17)</f>
+        <v>5477</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="B18" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C18" t="s">
         <v>9</v>
       </c>
-      <c r="D18">
+      <c r="M18">
+        <v>2877</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>30</v>
+      </c>
+      <c r="B19" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19">
+        <v>1057</v>
+      </c>
+      <c r="E19">
+        <v>1050</v>
+      </c>
+      <c r="F19">
+        <v>4320</v>
+      </c>
+      <c r="G19">
+        <v>4387</v>
+      </c>
+      <c r="H19">
+        <v>632</v>
+      </c>
+      <c r="I19">
+        <v>8172</v>
+      </c>
+      <c r="J19">
+        <v>99</v>
+      </c>
+      <c r="K19">
+        <v>140</v>
+      </c>
+      <c r="L19">
+        <v>1564</v>
+      </c>
+      <c r="M19">
+        <f>SUM(D19:L19)</f>
+        <v>21421</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>15</v>
+      </c>
+      <c r="B20" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20" t="s">
+        <v>8</v>
+      </c>
+      <c r="D20">
+        <v>424</v>
+      </c>
+      <c r="E20">
+        <v>422</v>
+      </c>
+      <c r="F20">
+        <v>424</v>
+      </c>
+      <c r="G20">
+        <v>427</v>
+      </c>
+      <c r="H20">
+        <v>426</v>
+      </c>
+      <c r="J20">
+        <v>31</v>
+      </c>
+      <c r="M20">
+        <f>SUM(D20:J20)+480</f>
+        <v>2634</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>11</v>
+      </c>
+      <c r="B21" t="s">
+        <v>20</v>
+      </c>
+      <c r="C21" t="s">
+        <v>8</v>
+      </c>
+      <c r="D21">
+        <v>1369</v>
+      </c>
+      <c r="E21">
+        <v>1466</v>
+      </c>
+      <c r="F21">
+        <v>1246</v>
+      </c>
+      <c r="G21">
+        <v>1364</v>
+      </c>
+      <c r="H21">
+        <v>554</v>
+      </c>
+      <c r="I21">
+        <v>1642</v>
+      </c>
+      <c r="J21">
+        <v>617</v>
+      </c>
+      <c r="K21">
+        <v>347</v>
+      </c>
+      <c r="L21">
+        <v>1231</v>
+      </c>
+      <c r="M21">
+        <f t="shared" ref="M21:M28" si="0">SUM(D21:L21)</f>
+        <v>9836</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>11</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22">
         <v>1727</v>
       </c>
-      <c r="E18">
+      <c r="E22">
         <v>1839</v>
       </c>
-      <c r="F18">
+      <c r="F22">
         <v>6204</v>
       </c>
-      <c r="G18">
+      <c r="G22">
         <v>4965</v>
       </c>
-      <c r="H18">
+      <c r="H22">
         <v>1378</v>
       </c>
-      <c r="I18">
+      <c r="I22">
         <v>14448</v>
       </c>
-      <c r="J18">
+      <c r="J22">
         <v>937</v>
       </c>
-      <c r="L18">
+      <c r="L22">
         <v>1614</v>
       </c>
-      <c r="M18">
+      <c r="M22">
         <f t="shared" si="0"/>
         <v>33112</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
         <v>10</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B23" t="s">
         <v>20</v>
       </c>
-      <c r="C19" t="s">
-        <v>8</v>
-      </c>
-      <c r="D19">
+      <c r="C23" t="s">
+        <v>8</v>
+      </c>
+      <c r="D23">
         <v>146</v>
       </c>
-      <c r="E19">
+      <c r="E23">
         <v>142</v>
       </c>
-      <c r="F19">
+      <c r="F23">
         <v>421</v>
       </c>
-      <c r="G19">
+      <c r="G23">
         <v>354</v>
       </c>
-      <c r="H19">
+      <c r="H23">
         <v>129</v>
       </c>
-      <c r="I19">
+      <c r="I23">
         <v>685</v>
       </c>
-      <c r="J19">
+      <c r="J23">
         <v>151</v>
       </c>
-      <c r="K19">
+      <c r="K23">
         <v>105</v>
       </c>
-      <c r="L19">
+      <c r="L23">
         <v>346</v>
       </c>
-      <c r="M19">
+      <c r="M23">
         <f t="shared" si="0"/>
         <v>2479</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
         <v>10</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B24" t="s">
         <v>20</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C24" t="s">
         <v>9</v>
       </c>
-      <c r="D20">
+      <c r="D24">
         <v>650</v>
       </c>
-      <c r="E20">
+      <c r="E24">
         <v>585</v>
       </c>
-      <c r="F20">
+      <c r="F24">
         <v>2919</v>
       </c>
-      <c r="G20">
+      <c r="G24">
         <v>3153</v>
       </c>
-      <c r="H20">
+      <c r="H24">
         <v>394</v>
       </c>
-      <c r="I20">
+      <c r="I24">
         <v>7185</v>
       </c>
-      <c r="J20">
+      <c r="J24">
         <v>149</v>
       </c>
-      <c r="K20">
+      <c r="K24">
         <v>144</v>
       </c>
-      <c r="L20">
+      <c r="L24">
         <v>864</v>
       </c>
-      <c r="M20">
+      <c r="M24">
         <f t="shared" si="0"/>
         <v>16043</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
         <v>23</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B25" t="s">
         <v>20</v>
       </c>
-      <c r="C21" t="s">
-        <v>8</v>
-      </c>
-      <c r="D21">
+      <c r="C25" t="s">
+        <v>8</v>
+      </c>
+      <c r="D25">
         <v>178</v>
       </c>
-      <c r="E21">
+      <c r="E25">
         <v>180</v>
       </c>
-      <c r="F21">
+      <c r="F25">
         <v>393</v>
       </c>
-      <c r="G21">
+      <c r="G25">
         <v>363</v>
       </c>
-      <c r="H21">
+      <c r="H25">
         <v>124</v>
       </c>
-      <c r="I21">
+      <c r="I25">
         <v>261</v>
       </c>
-      <c r="J21">
+      <c r="J25">
         <v>96</v>
       </c>
-      <c r="K21">
+      <c r="K25">
         <v>68</v>
       </c>
-      <c r="L21">
+      <c r="L25">
         <v>220</v>
       </c>
-      <c r="M21">
+      <c r="M25">
         <f t="shared" si="0"/>
         <v>1883</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
         <v>23</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B26" t="s">
         <v>20</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C26" t="s">
         <v>9</v>
       </c>
-      <c r="D22">
+      <c r="D26">
         <v>174</v>
       </c>
-      <c r="E22">
+      <c r="E26">
         <v>177</v>
       </c>
-      <c r="F22">
+      <c r="F26">
         <v>473</v>
       </c>
-      <c r="G22">
+      <c r="G26">
         <v>508</v>
       </c>
-      <c r="H22">
+      <c r="H26">
         <v>196</v>
       </c>
-      <c r="I22">
+      <c r="I26">
         <v>613</v>
       </c>
-      <c r="J22">
+      <c r="J26">
         <v>75</v>
       </c>
-      <c r="K22">
+      <c r="K26">
         <v>61</v>
       </c>
-      <c r="L22">
+      <c r="L26">
         <v>316</v>
       </c>
-      <c r="M22">
+      <c r="M26">
         <f t="shared" si="0"/>
         <v>2593</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
         <v>24</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B27" t="s">
         <v>20</v>
       </c>
-      <c r="C23" t="s">
-        <v>8</v>
-      </c>
-      <c r="D23">
+      <c r="C27" t="s">
+        <v>8</v>
+      </c>
+      <c r="D27">
         <v>441</v>
       </c>
-      <c r="E23">
+      <c r="E27">
         <v>398</v>
       </c>
-      <c r="F23">
+      <c r="F27">
         <v>3500</v>
       </c>
-      <c r="G23">
+      <c r="G27">
         <v>3324</v>
       </c>
-      <c r="H23">
+      <c r="H27">
         <v>315</v>
       </c>
-      <c r="I23">
+      <c r="I27">
         <v>1507</v>
       </c>
-      <c r="J23">
+      <c r="J27">
         <v>83</v>
       </c>
-      <c r="K23">
+      <c r="K27">
         <v>66</v>
       </c>
-      <c r="L23">
+      <c r="L27">
         <v>596</v>
       </c>
-      <c r="M23">
+      <c r="M27">
         <f t="shared" si="0"/>
         <v>10230</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
         <v>24</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B28" t="s">
         <v>20</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C28" t="s">
         <v>9</v>
       </c>
-      <c r="D24">
+      <c r="D28">
         <v>1350</v>
       </c>
-      <c r="E24">
+      <c r="E28">
         <v>1216</v>
       </c>
-      <c r="F24">
+      <c r="F28">
         <v>17933</v>
       </c>
-      <c r="G24">
+      <c r="G28">
         <v>15615</v>
       </c>
-      <c r="H24">
+      <c r="H28">
         <v>407</v>
       </c>
-      <c r="I24">
+      <c r="I28">
         <v>24657</v>
       </c>
-      <c r="J24">
+      <c r="J28">
         <v>78</v>
       </c>
-      <c r="K24">
+      <c r="K28">
         <v>65</v>
       </c>
-      <c r="L24">
+      <c r="L28">
         <v>1770</v>
       </c>
-      <c r="M24">
+      <c r="M28">
         <f t="shared" si="0"/>
         <v>63091</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
         <v>28</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B29" t="s">
         <v>25</v>
       </c>
-      <c r="C25" t="s">
-        <v>8</v>
-      </c>
-      <c r="M25">
+      <c r="C29" t="s">
+        <v>8</v>
+      </c>
+      <c r="M29">
         <v>283</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
         <v>28</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B30" t="s">
         <v>25</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C30" t="s">
         <v>9</v>
       </c>
-      <c r="M26">
+      <c r="M30">
         <v>325</v>
       </c>
     </row>

--- a/Experiment_results/xlsx_format/ex_time.xlsx
+++ b/Experiment_results/xlsx_format/ex_time.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\ДИПЛОМНЫЙ проект\результаты экспериментов\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB5563AC-675D-49B8-976F-06D8CDCDE64F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E463075F-277C-46CE-B4B1-4CA0B623260E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="31">
   <si>
     <t>ETTh1</t>
   </si>
@@ -127,9 +127,6 @@
   </si>
   <si>
     <t>UniTime_8</t>
-  </si>
-  <si>
-    <t>Unitime_8</t>
   </si>
 </sst>
 </file>
@@ -457,7 +454,7 @@
   <dimension ref="A1:M30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="O18" sqref="O18"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1047,7 +1044,7 @@
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B18" t="s">
         <v>12</v>

--- a/Experiment_results/xlsx_format/ex_time.xlsx
+++ b/Experiment_results/xlsx_format/ex_time.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\ДИПЛОМНЫЙ проект\результаты экспериментов\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E463075F-277C-46CE-B4B1-4CA0B623260E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17403A96-6E03-4CEA-8788-412ECCA0E9AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -453,8 +453,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -558,9 +558,15 @@
       <c r="J2">
         <v>17</v>
       </c>
+      <c r="K2">
+        <v>6</v>
+      </c>
+      <c r="L2">
+        <v>13</v>
+      </c>
       <c r="M2">
-        <f>SUM(D2:J2)</f>
-        <v>69</v>
+        <f>SUM(D2:L2)</f>
+        <v>88</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
@@ -1126,9 +1132,15 @@
       <c r="J20">
         <v>31</v>
       </c>
+      <c r="K20">
+        <v>34</v>
+      </c>
+      <c r="L20">
+        <v>415</v>
+      </c>
       <c r="M20">
-        <f>SUM(D20:J20)+480</f>
-        <v>2634</v>
+        <f>SUM(D20:L20)+480</f>
+        <v>3083</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">

--- a/Experiment_results/xlsx_format/ex_time.xlsx
+++ b/Experiment_results/xlsx_format/ex_time.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\ДИПЛОМНЫЙ проект\результаты экспериментов\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17403A96-6E03-4CEA-8788-412ECCA0E9AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD8E8677-2AC1-4EC9-A88B-0101C1BA28C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -111,9 +111,6 @@
     <t>ModernTCN</t>
   </si>
   <si>
-    <t>native</t>
-  </si>
-  <si>
     <t>de_small</t>
   </si>
   <si>
@@ -127,6 +124,9 @@
   </si>
   <si>
     <t>UniTime_8</t>
+  </si>
+  <si>
+    <t>naive</t>
   </si>
 </sst>
 </file>
@@ -454,7 +454,7 @@
   <dimension ref="A1:M30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -518,13 +518,13 @@
         <v>6</v>
       </c>
       <c r="K1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L1" t="s">
         <v>26</v>
       </c>
-      <c r="L1" t="s">
-        <v>27</v>
-      </c>
       <c r="M1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
@@ -994,7 +994,7 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B16" t="s">
         <v>12</v>
@@ -1008,7 +1008,7 @@
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B17" t="s">
         <v>14</v>
@@ -1050,7 +1050,7 @@
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B18" t="s">
         <v>12</v>
@@ -1064,7 +1064,7 @@
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B19" t="s">
         <v>14</v>
@@ -1478,10 +1478,10 @@
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C29" t="s">
         <v>8</v>
@@ -1492,10 +1492,10 @@
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B30" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C30" t="s">
         <v>9</v>
